--- a/syllabus.xlsx
+++ b/syllabus.xlsx
@@ -10,13 +10,14 @@
     <sheet name="html" sheetId="1" r:id="rId1"/>
     <sheet name="css" sheetId="2" r:id="rId2"/>
     <sheet name="javascript" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>home</t>
   </si>
@@ -36,23 +37,99 @@
     <t>practice</t>
   </si>
   <si>
-    <t>interviewd</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>Paragraphs</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>Quotations</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Favicon</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>getEmployeeByDepartmentId</t>
+  </si>
+  <si>
+    <t>http://localhost:6010/employees/getEmployeeByDepartmentId/20</t>
+  </si>
+  <si>
+    <t>getEmployees</t>
+  </si>
+  <si>
+    <t>http://localhost:6010/employees/</t>
+  </si>
+  <si>
+    <t>getEmployee</t>
+  </si>
+  <si>
+    <t>http://localhost:6010/employees/{emp-id}</t>
+  </si>
+  <si>
+    <t>http://localhost:6010/employees/get/{emil}</t>
+  </si>
+  <si>
+    <t>check if he email is already present in database</t>
+  </si>
+  <si>
+    <t>interview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,14 +151,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,54 +492,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -470,4 +695,62 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="91.42578125" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>